--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2599258.962525696</v>
+        <v>2594635.963122786</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9115874.036246568</v>
+        <v>9115874.03624657</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G2" t="n">
-        <v>50.48273419507654</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>50.48273419507654</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.49204648445981</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>25.15787082233985</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.46519227902342</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>44.46519227902342</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8.386866521745231</v>
       </c>
       <c r="G4" t="n">
-        <v>41.4216011981056</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,52 +840,52 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17.44799951871617</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="C5" t="n">
-        <v>25.34580260830151</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>25.34580260830151</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>47.38379687733242</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,46 +1065,46 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>52.60630734092062</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.93225064571201</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="G7" t="n">
-        <v>13.74224000600998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>73.46744821986559</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>170.1331892653147</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>170.1331892653147</v>
+        <v>13.80371436173802</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157309</v>
+        <v>55.70610478157356</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>94.14720832331612</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5414690675039</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4893481542762</v>
+        <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.78225762642488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.3604971227115</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.785479501566</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>170.133189265314</v>
       </c>
       <c r="U9" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>30.52113728574544</v>
       </c>
       <c r="X9" t="n">
-        <v>165.1366570932162</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.112678929899</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416836</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983115996</v>
+        <v>29.85685983116024</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.36569574111609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>18.16423677622388</v>
+        <v>139.188673966789</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>61.16269384155261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>122.8327676896534</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>139.527197914137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>102.9630220374172</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>128.1306638699257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.79687029690999</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881293</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>166.8892976061572</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>96.36494467178881</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.25298866282695</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
-        <v>13.7922272577517</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4036,13 +4036,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="C2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="D2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="E2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="F2" t="n">
-        <v>161.1550860467999</v>
+        <v>74.5336244444547</v>
       </c>
       <c r="G2" t="n">
-        <v>110.1624252436922</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="H2" t="n">
         <v>59.16976444058463</v>
@@ -4333,19 +4333,19 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>4.038618735606123</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L2" t="n">
-        <v>51.99721622092883</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M2" t="n">
-        <v>51.99721622092883</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O2" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4354,28 +4354,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>168.1005867960033</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S2" t="n">
-        <v>168.1005867960033</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>168.1005867960033</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="V2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="W2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="X2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.1005867960033</v>
+        <v>125.5262852475623</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="D3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="E3" t="n">
-        <v>55.03127953871374</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="F3" t="n">
         <v>55.03127953871374</v>
@@ -4412,49 +4412,49 @@
         <v>7.929436376304878</v>
       </c>
       <c r="K3" t="n">
-        <v>51.99721622092883</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="L3" t="n">
-        <v>51.99721622092883</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="M3" t="n">
-        <v>101.9751230740546</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="N3" t="n">
-        <v>101.9751230740546</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="O3" t="n">
-        <v>151.9530299271804</v>
+        <v>107.8852500825564</v>
       </c>
       <c r="P3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.8631569356822</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T3" t="n">
         <v>150.9382759771985</v>
       </c>
       <c r="U3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.4955226870186</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="C4" t="n">
-        <v>114.4955226870186</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="D4" t="n">
-        <v>114.4955226870186</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="E4" t="n">
-        <v>114.4955226870186</v>
+        <v>12.51020108080333</v>
       </c>
       <c r="F4" t="n">
-        <v>114.4955226870186</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
-        <v>72.65552147681089</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H4" t="n">
-        <v>72.65552147681089</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>72.65552147681089</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4521,16 +4521,16 @@
         <v>165.4881834901262</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="V4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="W4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="X4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Y4" t="n">
         <v>114.4955226870186</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5058416586064</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="C5" t="n">
-        <v>80.90402084214027</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="D5" t="n">
         <v>26.56430571019821</v>
@@ -4582,10 +4582,10 @@
         <v>164.078769840899</v>
       </c>
       <c r="O5" t="n">
-        <v>210.024473605</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
-        <v>210.024473605</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
@@ -4594,25 +4594,25 @@
         <v>160.8455567905485</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="V5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="X5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8455567905485</v>
+        <v>80.90402084214027</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.303705438449811</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="D6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="E6" t="n">
         <v>4.303705438449811</v>
@@ -4646,52 +4646,52 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>10.61032575544672</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
-        <v>10.61032575544672</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L6" t="n">
-        <v>63.86868055626314</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M6" t="n">
-        <v>117.1270353570795</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="N6" t="n">
-        <v>170.385390157896</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="O6" t="n">
-        <v>215.1852719224906</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="P6" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W6" t="n">
-        <v>58.64342057039187</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="7">
@@ -4713,19 +4713,19 @@
         <v>72.52447108151307</v>
       </c>
       <c r="F7" t="n">
-        <v>18.18475594957101</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="G7" t="n">
-        <v>4.303705438449811</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="H7" t="n">
-        <v>4.303705438449811</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="I7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="J7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="K7" t="n">
         <v>4.303705438449811</v>
@@ -4746,10 +4746,10 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
         <v>126.8641862134551</v>
@@ -4761,16 +4761,16 @@
         <v>126.8641862134551</v>
       </c>
       <c r="V7" t="n">
-        <v>72.52447108151307</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="W7" t="n">
-        <v>72.52447108151307</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="X7" t="n">
-        <v>72.52447108151307</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.52447108151307</v>
+        <v>126.8641862134551</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>357.3140677984267</v>
+        <v>108.7088453667959</v>
       </c>
       <c r="C8" t="n">
-        <v>357.3140677984267</v>
+        <v>108.7088453667959</v>
       </c>
       <c r="D8" t="n">
-        <v>357.3140677984267</v>
+        <v>34.499301710366</v>
       </c>
       <c r="E8" t="n">
-        <v>357.3140677984267</v>
+        <v>34.499301710366</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4623614698259</v>
+        <v>27.55380096116252</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821342</v>
+        <v>127.7362978821335</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821342</v>
+        <v>127.7362978821335</v>
       </c>
       <c r="L8" t="n">
-        <v>273.4478460501411</v>
+        <v>296.1681552547944</v>
       </c>
       <c r="M8" t="n">
-        <v>305.9882709462292</v>
+        <v>464.6000126274553</v>
       </c>
       <c r="N8" t="n">
-        <v>343.6690423159357</v>
+        <v>512.1008996885953</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1008996885973</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="P8" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525993</v>
+        <v>624.263964352596</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643525993</v>
+        <v>624.263964352596</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643525993</v>
+        <v>624.263964352596</v>
       </c>
       <c r="U8" t="n">
-        <v>452.4122580239985</v>
+        <v>624.263964352596</v>
       </c>
       <c r="V8" t="n">
-        <v>357.3140677984267</v>
+        <v>624.263964352596</v>
       </c>
       <c r="W8" t="n">
-        <v>357.3140677984267</v>
+        <v>452.4122580239959</v>
       </c>
       <c r="X8" t="n">
-        <v>357.3140677984267</v>
+        <v>280.5605516953959</v>
       </c>
       <c r="Y8" t="n">
-        <v>357.3140677984267</v>
+        <v>108.7088453667959</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.1554512566557</v>
+        <v>319.4824479171899</v>
       </c>
       <c r="C9" t="n">
-        <v>119.1554512566557</v>
+        <v>319.4824479171899</v>
       </c>
       <c r="D9" t="n">
-        <v>119.1554512566557</v>
+        <v>319.4824479171899</v>
       </c>
       <c r="E9" t="n">
-        <v>119.1554512566557</v>
+        <v>319.4824479171899</v>
       </c>
       <c r="F9" t="n">
-        <v>119.1554512566557</v>
+        <v>319.4824479171899</v>
       </c>
       <c r="G9" t="n">
-        <v>119.1554512566557</v>
+        <v>181.5617720914283</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122518</v>
+        <v>76.01697597599772</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J9" t="n">
-        <v>13.61065514122518</v>
+        <v>87.88972643578383</v>
       </c>
       <c r="K9" t="n">
-        <v>13.61065514122518</v>
+        <v>87.88972643578383</v>
       </c>
       <c r="L9" t="n">
-        <v>48.84680630029818</v>
+        <v>123.125877594856</v>
       </c>
       <c r="M9" t="n">
-        <v>109.3226008933235</v>
+        <v>183.6016721878803</v>
       </c>
       <c r="N9" t="n">
-        <v>185.8076547336306</v>
+        <v>260.0867260281863</v>
       </c>
       <c r="O9" t="n">
-        <v>354.2395121062922</v>
+        <v>343.6690423159344</v>
       </c>
       <c r="P9" t="n">
-        <v>522.6713694789538</v>
+        <v>512.1008996885953</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="R9" t="n">
-        <v>629.6635680484191</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="S9" t="n">
-        <v>629.6635680484191</v>
+        <v>522.163585847553</v>
       </c>
       <c r="T9" t="n">
-        <v>629.6635680484191</v>
+        <v>350.311879518953</v>
       </c>
       <c r="U9" t="n">
-        <v>457.8118617198183</v>
+        <v>350.311879518953</v>
       </c>
       <c r="V9" t="n">
-        <v>457.8118617198183</v>
+        <v>350.311879518953</v>
       </c>
       <c r="W9" t="n">
-        <v>457.8118617198183</v>
+        <v>319.4824479171899</v>
       </c>
       <c r="X9" t="n">
-        <v>291.0071575852565</v>
+        <v>319.4824479171899</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.1554512566557</v>
+        <v>319.4824479171899</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.0320047000562</v>
+        <v>479.5534249793781</v>
       </c>
       <c r="C10" t="n">
-        <v>297.0958217721493</v>
+        <v>310.6172420514712</v>
       </c>
       <c r="D10" t="n">
-        <v>297.0958217721493</v>
+        <v>160.5006026391355</v>
       </c>
       <c r="E10" t="n">
-        <v>297.0958217721493</v>
+        <v>160.5006026391355</v>
       </c>
       <c r="F10" t="n">
-        <v>150.205874274239</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="G10" t="n">
-        <v>150.205874274239</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="H10" t="n">
-        <v>150.205874274239</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122512</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724058036</v>
+        <v>68.90447724057992</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340632</v>
+        <v>195.1879671340622</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694263</v>
+        <v>338.7253240694249</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004872</v>
+        <v>484.2842999004853</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689166</v>
+        <v>602.7152779689141</v>
       </c>
       <c r="P10" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612561</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873601</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873601</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="S10" t="n">
-        <v>478.5226064587593</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="T10" t="n">
-        <v>478.5226064587593</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="U10" t="n">
-        <v>478.5226064587593</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="V10" t="n">
-        <v>478.5226064587593</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="W10" t="n">
-        <v>478.5226064587593</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="X10" t="n">
-        <v>478.5226064587593</v>
+        <v>650.3743127873569</v>
       </c>
       <c r="Y10" t="n">
-        <v>466.0320047000562</v>
+        <v>650.3743127873569</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3791.319359123406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.4182386381636</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>339.5315467688215</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1014.859282611934</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>794.0667034684034</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,28 +6463,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,7 +6700,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6730,19 +6730,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.306025422647</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1500.747069396417</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1279.954490252887</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.140839595365</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>3047.140839595365</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>2897.02420018303</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>2749.111106600637</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2602.221159102726</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2435.025059817606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467152</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.581883569135</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.789304425605</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2856.288307456496</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>2856.288307456496</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>2856.288307456496</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874103</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.402603663004</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>776.4664207350971</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>626.3497813227614</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>478.4366877403683</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>331.5467402424579</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7684,10 +7684,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>256.7644825146879</v>
       </c>
       <c r="L2" t="n">
-        <v>269.6097064983847</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
@@ -7996,7 +7996,7 @@
         <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
-        <v>268.4117974997384</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>174.3611053575724</v>
+        <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>180.0744745527947</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8078,7 +8078,7 @@
         <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>178.1759897207746</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8230,13 +8230,13 @@
         <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>252.7866526327947</v>
+        <v>257.9995802262195</v>
       </c>
       <c r="P5" t="n">
         <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>176.8437648107177</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
         <v>165.5462778056219</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9260245103768</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>171.2126495331726</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605229</v>
+        <v>29.40848459605323</v>
       </c>
       <c r="L8" t="n">
-        <v>146.3927006781702</v>
+        <v>169.3425079555996</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>137.2640732086608</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9.919308779227123</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500766</v>
+        <v>147.6628633500771</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8047817831487</v>
+        <v>15.67159251783505</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.4280533180453</v>
+        <v>60.4280533180461</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>51.06167039640977</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291751462</v>
+        <v>8.328260291752116</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>121.9017887632559</v>
+        <v>36.19518160677866</v>
       </c>
       <c r="P9" t="n">
-        <v>150.9515879477177</v>
+        <v>150.9515879477178</v>
       </c>
       <c r="Q9" t="n">
-        <v>197.0569852728526</v>
+        <v>207.7342274853336</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>268.0202376130202</v>
+        <v>146.9958004224551</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>102.8768876993838</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>146.995800422454</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>62.5611162548516</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>97.5789915191115</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>73.62417772602126</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.357523492470591</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>43.92976817443508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.57899151911035</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
-        <v>151.7319110345171</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>811130.2774024</v>
+        <v>811130.2774024003</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="16">
@@ -26316,16 +26316,16 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520051</v>
@@ -26334,28 +26334,28 @@
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543805</v>
+        <v>325486.3975543787</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756735</v>
+        <v>1098807.963756737</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317183812</v>
+        <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031407</v>
+        <v>29443.81509031389</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299113</v>
+        <v>249845.7249299115</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392210.9417384903</v>
+        <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.0943290079</v>
+        <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278899</v>
+        <v>306360.6503278903</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719697</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241491</v>
+        <v>52100.52571241483</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188329.9121086822</v>
+        <v>188329.9121086821</v>
       </c>
       <c r="C6" t="n">
-        <v>217887.5224068036</v>
+        <v>217887.5224068037</v>
       </c>
       <c r="D6" t="n">
-        <v>-27114.15770325859</v>
+        <v>-27114.15770325666</v>
       </c>
       <c r="E6" t="n">
-        <v>-561720.5822903573</v>
+        <v>-562067.961544716</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.3814663779</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.3814663783</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.3814663783</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.381466378</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="J6" t="n">
-        <v>523878.8769606416</v>
+        <v>523531.4977062846</v>
       </c>
       <c r="K6" t="n">
-        <v>536234.5710346597</v>
+        <v>535887.1917803029</v>
       </c>
       <c r="L6" t="n">
-        <v>507643.5663760641</v>
+        <v>507296.1871217072</v>
       </c>
       <c r="M6" t="n">
-        <v>287241.6565364671</v>
+        <v>286894.2772821097</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663782</v>
+        <v>536740.0022120213</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.3814663781</v>
+        <v>536740.0022120213</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.3814663782</v>
+        <v>536740.0022120212</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075128</v>
+        <v>372.8820094075109</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653147</v>
+        <v>170.133189265314</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883874</v>
+        <v>337.8607486883856</v>
       </c>
       <c r="E3" t="n">
-        <v>995.093490934161</v>
+        <v>995.0934909341629</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846921</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="E4" t="n">
         <v>1002.575098834334</v>
@@ -27038,10 +27038,10 @@
         <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785545916</v>
+        <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846923</v>
+        <v>116.3368712846916</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27263,7 +27263,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846921</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>356.3933115466349</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>364.7274872087548</v>
-      </c>
       <c r="H2" t="n">
-        <v>288.0445872958018</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
         <v>156.4264279942944</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.5655562800104</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>226.1803807965923</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.6040201143605</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>46.60172783196103</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>149.4824728139983</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>175.4553912751407</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>188.3353948704018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>129.3492459868608</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>95.95122845149263</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>137.034181501186</v>
       </c>
       <c r="G4" t="n">
-        <v>126.5278786178032</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27560,10 +27560,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>39.94242826331492</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>235.8340315500025</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>168.1019191570182</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>328.9375236828579</v>
       </c>
       <c r="C5" t="n">
-        <v>339.927089162706</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>300.8867236400603</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27666,7 +27666,7 @@
         <v>87.22896370465668</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>152.0155225457752</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27675,7 +27675,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>302.4064558618334</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>112.7368656692447</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>118.9121810076931</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>93.64874758401612</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>110.2612835780685</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.68452591975693</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>146.0647829915492</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>204.3111862835872</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>151.9766672228548</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0356622013147</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,22 +27785,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>91.62473004230861</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>154.1855862593487</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>100.9449818411103</v>
       </c>
       <c r="J7" t="n">
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>169.119693879324</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27833,7 +27833,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>198.3413253432054</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>281.2155934008174</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>236.7428564763967</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>243.6705250964233</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460397</v>
+        <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490666</v>
+        <v>152.684799449067</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782104</v>
+        <v>174.8610794782105</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101358</v>
+        <v>216.5338757101359</v>
       </c>
       <c r="U8" t="n">
-        <v>81.09254179024998</v>
+        <v>251.2257310555647</v>
       </c>
       <c r="V8" t="n">
-        <v>233.6050501468188</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>179.107779452099</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>199.597911413155</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>216.1047493907396</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5414690675039</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642474</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.36049712271175</v>
       </c>
       <c r="S9" t="n">
-        <v>156.785479501566</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.9319120283546</v>
+        <v>26.79872276304056</v>
       </c>
       <c r="U9" t="n">
-        <v>55.75542649357411</v>
+        <v>225.8886157588888</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>221.1738458751742</v>
       </c>
       <c r="X9" t="n">
-        <v>40.6363281102613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.54950651198962</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.71930125203829</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712808</v>
+        <v>45.81978032712832</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160292</v>
+        <v>147.0593845160294</v>
       </c>
       <c r="S10" t="n">
-        <v>42.16513316453944</v>
+        <v>212.2983224298543</v>
       </c>
       <c r="T10" t="n">
         <v>225.0725641098958</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.2189576109787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397035</v>
+        <v>1.499023153397028</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972739</v>
+        <v>15.35187086972731</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133925</v>
+        <v>57.79109012133896</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656317</v>
+        <v>127.2277163656311</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489283</v>
+        <v>190.6813664489273</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797028</v>
+        <v>236.5570962797017</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839274</v>
+        <v>263.215349283926</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185167</v>
+        <v>267.4744488185153</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369249</v>
+        <v>252.5685373369236</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374356</v>
+        <v>215.5614032374345</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564042</v>
+        <v>161.8776365564034</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957659</v>
+        <v>94.16301315957612</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803497</v>
+        <v>34.1589901080348</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995525</v>
+        <v>6.561973853995492</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717628</v>
+        <v>0.1199218522717622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067256</v>
+        <v>0.8020480957067216</v>
       </c>
       <c r="H9" t="n">
-        <v>7.74609608222022</v>
+        <v>7.746096082220181</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499034</v>
+        <v>27.6143752249902</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025693</v>
+        <v>75.77595627025654</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826075</v>
+        <v>129.5131786826069</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577257</v>
+        <v>174.1464516577248</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270944</v>
+        <v>203.2206951270934</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250576</v>
+        <v>208.5993422250565</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465033</v>
+        <v>190.8276449465023</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319273</v>
+        <v>153.1560087319265</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660024</v>
+        <v>102.3807358660019</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993163</v>
+        <v>49.79733702993138</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227184</v>
+        <v>14.89769160227177</v>
       </c>
       <c r="T9" t="n">
-        <v>3.23281666646702</v>
+        <v>3.232816666467004</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596881</v>
+        <v>0.05276632208596855</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987935</v>
+        <v>0.6724101808987901</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172914</v>
+        <v>5.978337790172883</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557463</v>
+        <v>20.22120798557453</v>
       </c>
       <c r="J10" t="n">
-        <v>47.5393997895447</v>
+        <v>47.53939978954445</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078708</v>
+        <v>78.12183738078669</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017154</v>
+        <v>99.96905544017105</v>
       </c>
       <c r="M10" t="n">
-        <v>105.403352265799</v>
+        <v>105.4033522657985</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369945</v>
+        <v>102.897096136994</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013131</v>
+        <v>95.04212266013084</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979587</v>
+        <v>81.32495496979546</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053443</v>
+        <v>56.30518342053414</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114029</v>
+        <v>30.23400686114013</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711806</v>
+        <v>11.718275607118</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385753</v>
+        <v>2.873025318385739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811605</v>
+        <v>0.03667691895811587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330458</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,16 +33736,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="L2" t="n">
-        <v>48.44302776295223</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>44.51290893396359</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.51290893396361</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>46.40980178192013</v>
+        <v>51.62272937534497</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="O6" t="n">
-        <v>45.25240582282283</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110192</v>
+        <v>115.2784270110186</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>147.1833819878858</v>
+        <v>170.133189265314</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665463</v>
+        <v>170.133189265314</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192578</v>
+        <v>47.98069400115153</v>
       </c>
       <c r="O8" t="n">
-        <v>170.1331892653147</v>
+        <v>170.133189265314</v>
       </c>
       <c r="P8" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>75.02936494399869</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>35.59207187785151</v>
+        <v>35.59207187785063</v>
       </c>
       <c r="M9" t="n">
-        <v>61.08666120507613</v>
+        <v>61.0866612050751</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172426</v>
+        <v>77.25763014172321</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1331892653147</v>
+        <v>84.42658210883651</v>
       </c>
       <c r="P9" t="n">
-        <v>170.1331892653147</v>
+        <v>170.133189265314</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.4559470528335</v>
+        <v>170.133189265314</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490423</v>
+        <v>55.85234555490383</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004877</v>
+        <v>127.5590807004872</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276396</v>
+        <v>144.9872292276391</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162231</v>
+        <v>147.0292685162226</v>
       </c>
       <c r="O10" t="n">
-        <v>119.627250574171</v>
+        <v>119.6272505741705</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468936</v>
+        <v>78.60351423468894</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2594635.963122786</v>
+        <v>2596396.493425569</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.48273419507654</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.28182508062843</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>25.15787082233985</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -746,67 +746,67 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>44.4651922790234</v>
+      </c>
+      <c r="W3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="F3" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="X3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="Y3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="F4" t="n">
-        <v>8.386866521745231</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>8.386866521745219</v>
       </c>
       <c r="Y4" t="n">
         <v>50.48273419507654</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>32.22184835001295</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>53.79631798062264</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="V5" t="n">
-        <v>25.34580260830151</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,73 +977,73 @@
         <v>53.79631798062264</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>47.3837968773324</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="D6" t="n">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="E6" t="n">
-        <v>47.38379687733242</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>52.60630734092059</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>52.60630734092062</v>
-      </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>73.46744821986559</v>
+        <v>73.46744821986441</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>170.1331892653133</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.80371436173802</v>
+        <v>13.80371436173803</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157356</v>
+        <v>55.70610478157404</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653133</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653133</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>170.1331892653133</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5414690675039</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4893481542763</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.96033322209107</v>
       </c>
       <c r="S9" t="n">
-        <v>156.785479501566</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>30.52113728574544</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.112678929899</v>
+        <v>169.112678929896</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116024</v>
+        <v>29.85685983116052</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188726</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856103</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>139.188673966789</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>122.8327676896534</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560524</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812011</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,10 +2323,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>102.9630220374172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>24.83266606353065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>176.76214411214</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881293</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223582</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="C2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="D2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="E2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="F2" t="n">
         <v>74.5336244444547</v>
@@ -4339,10 +4339,10 @@
         <v>101.9751230740546</v>
       </c>
       <c r="M2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="N2" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="O2" t="n">
         <v>201.9309367803062</v>
@@ -4354,28 +4354,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>201.9309367803062</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="S2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9382759771985</v>
+        <v>132.4717859967658</v>
       </c>
       <c r="U2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="V2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="W2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="X2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
       <c r="Y2" t="n">
-        <v>125.5262852475623</v>
+        <v>81.47912519365818</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
         <v>4.038618735606123</v>
@@ -4409,52 +4409,52 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>57.90734322943065</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L3" t="n">
-        <v>57.90734322943065</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>57.90734322943065</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N3" t="n">
-        <v>57.90734322943065</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
-        <v>107.8852500825564</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8631569356822</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V3" t="n">
-        <v>150.9382759771985</v>
+        <v>157.016601144929</v>
       </c>
       <c r="W3" t="n">
-        <v>150.9382759771985</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="X3" t="n">
-        <v>150.9382759771985</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.50286188391095</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="C4" t="n">
-        <v>63.50286188391095</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="D4" t="n">
-        <v>63.50286188391095</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E4" t="n">
-        <v>12.51020108080333</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
         <v>4.038618735606123</v>
@@ -4530,10 +4530,10 @@
         <v>165.4881834901262</v>
       </c>
       <c r="X4" t="n">
-        <v>165.4881834901262</v>
+        <v>157.016601144929</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.4955226870186</v>
+        <v>106.0239403418214</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.56430571019821</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C5" t="n">
-        <v>26.56430571019821</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="D5" t="n">
-        <v>26.56430571019821</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="E5" t="n">
-        <v>26.56430571019821</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="F5" t="n">
-        <v>19.61880496099473</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="G5" t="n">
-        <v>4.303705438449811</v>
+        <v>36.85102700411946</v>
       </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>36.85102700411946</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4570,19 +4570,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L5" t="n">
         <v>57.56206023926622</v>
       </c>
       <c r="M5" t="n">
-        <v>110.8204150400826</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="N5" t="n">
-        <v>164.078769840899</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4591,28 +4591,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="S5" t="n">
         <v>160.8455567905485</v>
       </c>
-      <c r="S5" t="n">
-        <v>106.5058416586064</v>
-      </c>
       <c r="T5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U5" t="n">
         <v>106.5058416586064</v>
       </c>
       <c r="V5" t="n">
-        <v>80.90402084214027</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="W5" t="n">
-        <v>80.90402084214027</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="X5" t="n">
-        <v>80.90402084214027</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.90402084214027</v>
+        <v>106.5058416586064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.8455567905485</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C6" t="n">
-        <v>106.5058416586064</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D6" t="n">
-        <v>52.16612652666438</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E6" t="n">
         <v>4.303705438449811</v>
@@ -4658,10 +4658,10 @@
         <v>57.56206023926622</v>
       </c>
       <c r="N6" t="n">
-        <v>110.8204150400826</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="O6" t="n">
-        <v>110.8204150400826</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="P6" t="n">
         <v>161.9269171216741</v>
@@ -4676,22 +4676,22 @@
         <v>215.1852719224906</v>
       </c>
       <c r="T6" t="n">
-        <v>215.1852719224906</v>
+        <v>167.322850834276</v>
       </c>
       <c r="U6" t="n">
-        <v>215.1852719224906</v>
+        <v>167.322850834276</v>
       </c>
       <c r="V6" t="n">
-        <v>215.1852719224906</v>
+        <v>167.322850834276</v>
       </c>
       <c r="W6" t="n">
-        <v>215.1852719224906</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="X6" t="n">
-        <v>215.1852719224906</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="Y6" t="n">
-        <v>215.1852719224906</v>
+        <v>58.64342057039187</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="C7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="D7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="E7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="F7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="G7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="H7" t="n">
-        <v>72.52447108151307</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="I7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="J7" t="n">
         <v>19.38678689876497</v>
@@ -4746,31 +4746,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="S7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="W7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="X7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.7088453667959</v>
+        <v>280.560551695394</v>
       </c>
       <c r="C8" t="n">
-        <v>108.7088453667959</v>
+        <v>280.560551695394</v>
       </c>
       <c r="D8" t="n">
-        <v>34.499301710366</v>
+        <v>206.3510080389653</v>
       </c>
       <c r="E8" t="n">
-        <v>34.499301710366</v>
+        <v>34.49930171036594</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116252</v>
+        <v>27.55380096116247</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821335</v>
+        <v>127.7362978821328</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821335</v>
+        <v>268.4832383016653</v>
       </c>
       <c r="L8" t="n">
-        <v>296.1681552547944</v>
+        <v>269.2660127982814</v>
       </c>
       <c r="M8" t="n">
-        <v>464.6000126274553</v>
+        <v>301.8064376943668</v>
       </c>
       <c r="N8" t="n">
-        <v>512.1008996885953</v>
+        <v>339.4872090640707</v>
       </c>
       <c r="O8" t="n">
-        <v>680.5327570612561</v>
+        <v>361.732831720154</v>
       </c>
       <c r="P8" t="n">
-        <v>680.5327570612561</v>
+        <v>530.1646890928141</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612561</v>
+        <v>680.5327570612533</v>
       </c>
       <c r="R8" t="n">
-        <v>624.263964352596</v>
+        <v>624.2639643525927</v>
       </c>
       <c r="S8" t="n">
-        <v>624.263964352596</v>
+        <v>624.2639643525927</v>
       </c>
       <c r="T8" t="n">
-        <v>624.263964352596</v>
+        <v>624.2639643525927</v>
       </c>
       <c r="U8" t="n">
-        <v>624.263964352596</v>
+        <v>624.2639643525927</v>
       </c>
       <c r="V8" t="n">
-        <v>624.263964352596</v>
+        <v>624.2639643525927</v>
       </c>
       <c r="W8" t="n">
-        <v>452.4122580239959</v>
+        <v>624.2639643525927</v>
       </c>
       <c r="X8" t="n">
-        <v>280.5605516953959</v>
+        <v>452.4122580239933</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.7088453667959</v>
+        <v>280.560551695394</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>319.4824479171899</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="C9" t="n">
-        <v>319.4824479171899</v>
+        <v>468.3170777810469</v>
       </c>
       <c r="D9" t="n">
-        <v>319.4824479171899</v>
+        <v>319.3826681197956</v>
       </c>
       <c r="E9" t="n">
-        <v>319.4824479171899</v>
+        <v>160.1452131143401</v>
       </c>
       <c r="F9" t="n">
-        <v>319.4824479171899</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="G9" t="n">
-        <v>181.5617720914283</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="H9" t="n">
-        <v>76.01697597599772</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="J9" t="n">
-        <v>87.88972643578383</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="K9" t="n">
-        <v>87.88972643578383</v>
+        <v>182.0425125138852</v>
       </c>
       <c r="L9" t="n">
-        <v>123.125877594856</v>
+        <v>217.2786636729565</v>
       </c>
       <c r="M9" t="n">
-        <v>183.6016721878803</v>
+        <v>368.8769740468323</v>
       </c>
       <c r="N9" t="n">
-        <v>260.0867260281863</v>
+        <v>445.3620278871372</v>
       </c>
       <c r="O9" t="n">
-        <v>343.6690423159344</v>
+        <v>493.1111143841736</v>
       </c>
       <c r="P9" t="n">
-        <v>512.1008996885953</v>
+        <v>512.1008996885931</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612561</v>
+        <v>680.5327570612533</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612561</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="S9" t="n">
-        <v>522.163585847553</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="T9" t="n">
-        <v>350.311879518953</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="U9" t="n">
-        <v>350.311879518953</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="V9" t="n">
-        <v>350.311879518953</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="W9" t="n">
-        <v>319.4824479171899</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="X9" t="n">
-        <v>319.4824479171899</v>
+        <v>640.1687841096461</v>
       </c>
       <c r="Y9" t="n">
-        <v>319.4824479171899</v>
+        <v>640.1687841096461</v>
       </c>
     </row>
     <row r="10">
@@ -4944,70 +4944,70 @@
         <v>310.6172420514712</v>
       </c>
       <c r="D10" t="n">
-        <v>160.5006026391355</v>
+        <v>160.5006026391354</v>
       </c>
       <c r="E10" t="n">
-        <v>160.5006026391355</v>
+        <v>160.5006026391354</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122507</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057992</v>
+        <v>68.90447724057945</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340622</v>
+        <v>195.1879671340613</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694249</v>
+        <v>338.7253240694234</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004853</v>
+        <v>484.2842999004833</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689141</v>
+        <v>602.7152779689117</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612561</v>
+        <v>680.5327570612533</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="S10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="T10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="U10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="V10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="W10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="X10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.3743127873569</v>
+        <v>650.3743127873538</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578556</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000537</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.866460342035</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5430,19 +5430,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,10 +5548,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5560,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1087.256396642634</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5782,19 +5782,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,7 +5831,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5843,16 +5843,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
@@ -5989,28 +5989,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6138,10 +6138,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>486.4214942667319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>339.5315467688215</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,13 +6536,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6609,25 +6609,25 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6694,49 +6694,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6967,7 +6967,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7016,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7204,16 +7204,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,49 +7393,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111749</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107584</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
         <v>4606.28515749258</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7551,22 +7551,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,52 +7636,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7788,22 +7788,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7987,13 +7987,13 @@
         <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>264.5839477933977</v>
       </c>
       <c r="N2" t="n">
         <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
-        <v>264.993021668346</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
         <v>217.9290633046618</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>180.3309306186853</v>
@@ -8069,16 +8069,16 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>166.9104890920976</v>
       </c>
       <c r="O3" t="n">
-        <v>181.3015543884808</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>178.1759897207746</v>
+        <v>184.1458149818875</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>255.9772818167572</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>255.9144619035325</v>
       </c>
       <c r="O5" t="n">
-        <v>257.9995802262195</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8306,13 +8306,13 @@
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>165.5462778056219</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>176.2963480628989</v>
       </c>
       <c r="P6" t="n">
-        <v>171.2126495331726</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1624432744798</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605323</v>
+        <v>171.5771112824507</v>
       </c>
       <c r="L8" t="n">
-        <v>169.3425079555996</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>137.2640732086608</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.919308779227123</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500771</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.67159251783505</v>
+        <v>185.8047817831495</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.4280533180461</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>51.06167039641053</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291752116</v>
+        <v>178.4614495570661</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>92.0429452331843</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>36.19518160677866</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.9515879477178</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>207.7342274853336</v>
+        <v>207.7342274853335</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.524291969370097e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.11969353038158</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>146.9958004224551</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>102.8768876993838</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405077</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>62.5611162548516</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>811130.2774024003</v>
+        <v>811130.2774024004</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206416</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914272</v>
-      </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543787</v>
+        <v>325486.3975543769</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756737</v>
+        <v>1098807.963756739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573667</v>
       </c>
       <c r="K3" t="n">
         <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031389</v>
+        <v>29443.81509031371</v>
       </c>
       <c r="M3" t="n">
         <v>249845.7249299115</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278903</v>
+        <v>306360.6503278908</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171977</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719749</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171975</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719707</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719704</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171973</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719712</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719697</v>
+        <v>7507.368461719745</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719739</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241483</v>
+        <v>52100.52571241475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188329.9121086821</v>
+        <v>188329.9121086819</v>
       </c>
       <c r="C6" t="n">
-        <v>217887.5224068037</v>
+        <v>217887.522406804</v>
       </c>
       <c r="D6" t="n">
-        <v>-27114.15770325666</v>
+        <v>-27114.15770325593</v>
       </c>
       <c r="E6" t="n">
-        <v>-562067.961544716</v>
+        <v>-561755.3202157966</v>
       </c>
       <c r="F6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409421</v>
       </c>
       <c r="G6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="H6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="I6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="J6" t="n">
-        <v>523531.4977062846</v>
+        <v>523844.1390352059</v>
       </c>
       <c r="K6" t="n">
-        <v>535887.1917803029</v>
+        <v>536199.833109224</v>
       </c>
       <c r="L6" t="n">
-        <v>507296.1871217072</v>
+        <v>507608.8284506289</v>
       </c>
       <c r="M6" t="n">
-        <v>286894.2772821097</v>
+        <v>287206.918611031</v>
       </c>
       <c r="N6" t="n">
-        <v>536740.0022120213</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="O6" t="n">
-        <v>536740.0022120213</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="P6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409423</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075109</v>
+        <v>372.882009407509</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653133</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883856</v>
+        <v>337.8607486883837</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341629</v>
+        <v>995.0934909341645</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846914</v>
+        <v>116.3368712846907</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834335</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507655</v>
+        <v>50.48273419507677</v>
       </c>
       <c r="K4" t="n">
         <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846916</v>
+        <v>116.3368712846909</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846914</v>
+        <v>116.3368712846907</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>125.7757776838418</v>
       </c>
       <c r="S2" t="n">
-        <v>156.4291245048363</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>172.208126091823</v>
       </c>
       <c r="U2" t="n">
-        <v>226.1803807965923</v>
+        <v>200.8555174238556</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27466,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>100.6040201143605</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>61.27463958220945</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.60172783196103</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27517,16 +27517,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.3353948704019</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.2122489658431</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2902510084009</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>95.95122845149263</v>
       </c>
       <c r="F4" t="n">
-        <v>137.034181501186</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>217.3227888672919</v>
       </c>
       <c r="Y4" t="n">
         <v>168.1019191570182</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.9375236828579</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>172.8262737676328</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.22896370465668</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>152.0155225457752</v>
@@ -27672,10 +27672,10 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>197.5380718081886</v>
       </c>
       <c r="V5" t="n">
-        <v>302.4064558618334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,13 +27697,13 @@
         <v>112.7368656692447</v>
       </c>
       <c r="C6" t="n">
-        <v>118.9121810076931</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>110.2612835780685</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27748,7 +27748,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>152.4773040948394</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>197.898665180297</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>151.8863777966817</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.0356622013147</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>114.6405137577073</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>100.9449818411103</v>
+        <v>99.75497120140832</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>35.09793845387575</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.07751490248382</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>281.2155934008174</v>
+        <v>281.2155934008185</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>211.7971808069485</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>152.684799449067</v>
+        <v>152.6847994490672</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782105</v>
+        <v>174.8610794782107</v>
       </c>
       <c r="T8" t="n">
         <v>216.5338757101359</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>179.107779452099</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>199.597911413155</v>
+        <v>199.5979114131557</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.1047493907396</v>
+        <v>216.1047493907403</v>
       </c>
     </row>
     <row r="9">
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>2.57530972300242</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5414690675039</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.78225762642502</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271175</v>
+        <v>10.40016390062093</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.7854795015661</v>
       </c>
       <c r="T9" t="n">
-        <v>26.79872276304056</v>
+        <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
         <v>225.8886157588888</v>
@@ -27994,7 +27994,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>221.1738458751742</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.71930125203829</v>
+        <v>10.71930125204133</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712832</v>
+        <v>45.81978032712856</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160294</v>
+        <v>147.0593845160295</v>
       </c>
       <c r="S10" t="n">
         <v>212.2983224298543</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.532087617725343e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,16 +28851,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.15802671549752e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29043,19 +29043,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,13 +29088,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397028</v>
+        <v>1.49902315339702</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972731</v>
+        <v>15.35187086972724</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133896</v>
+        <v>57.79109012133868</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656311</v>
+        <v>127.2277163656305</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489273</v>
+        <v>190.6813664489264</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797017</v>
+        <v>236.5570962797005</v>
       </c>
       <c r="M8" t="n">
-        <v>263.215349283926</v>
+        <v>263.2153492839247</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185153</v>
+        <v>267.474448818514</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369236</v>
+        <v>252.5685373369224</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374345</v>
+        <v>215.5614032374334</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564034</v>
+        <v>161.8776365564026</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957612</v>
+        <v>94.16301315957564</v>
       </c>
       <c r="S8" t="n">
-        <v>34.1589901080348</v>
+        <v>34.15899010803463</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995492</v>
+        <v>6.561973853995458</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717622</v>
+        <v>0.1199218522717616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067216</v>
+        <v>0.8020480957067175</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220181</v>
+        <v>7.746096082220141</v>
       </c>
       <c r="I9" t="n">
-        <v>27.6143752249902</v>
+        <v>27.61437522499006</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025654</v>
+        <v>75.77595627025616</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826069</v>
+        <v>129.5131786826062</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577248</v>
+        <v>174.1464516577239</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270934</v>
+        <v>203.2206951270924</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250565</v>
+        <v>208.5993422250555</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465023</v>
+        <v>190.8276449465014</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319265</v>
+        <v>153.1560087319258</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660019</v>
+        <v>102.3807358660014</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993138</v>
+        <v>49.79733702993114</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227177</v>
+        <v>14.8976916022717</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467004</v>
+        <v>3.232816666466988</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596855</v>
+        <v>0.05276632208596828</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987901</v>
+        <v>0.6724101808987867</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172883</v>
+        <v>5.978337790172853</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557453</v>
+        <v>20.22120798557443</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954445</v>
+        <v>47.53939978954422</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078669</v>
+        <v>78.12183738078629</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017105</v>
+        <v>99.96905544017054</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657985</v>
+        <v>105.403352265798</v>
       </c>
       <c r="N10" t="n">
-        <v>102.897096136994</v>
+        <v>102.8970961369935</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013084</v>
+        <v>95.04212266013036</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979546</v>
+        <v>81.32495496979504</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053414</v>
+        <v>56.30518342053387</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114013</v>
+        <v>30.23400686113999</v>
       </c>
       <c r="S10" t="n">
-        <v>11.718275607118</v>
+        <v>11.71827560711794</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385739</v>
+        <v>2.873025318385724</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811587</v>
+        <v>0.03667691895811568</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912051</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,22 +33028,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,25 +33736,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875802</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789111</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34707,13 +34707,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="N2" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="O2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>50.48273419507654</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="O3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.51290893396361</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="N5" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="O5" t="n">
-        <v>51.62272937534497</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="P6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>51.62272937534495</v>
       </c>
       <c r="Q6" t="n">
         <v>53.79631798062264</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110186</v>
+        <v>115.2784270110179</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>142.1686266863965</v>
       </c>
       <c r="L8" t="n">
-        <v>170.133189265314</v>
+        <v>0.7906813097132215</v>
       </c>
       <c r="M8" t="n">
-        <v>170.133189265314</v>
+        <v>32.86911605665196</v>
       </c>
       <c r="N8" t="n">
-        <v>47.98069400115153</v>
+        <v>38.0613852219231</v>
       </c>
       <c r="O8" t="n">
-        <v>170.133189265314</v>
+        <v>22.47032591523563</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>170.1331892653133</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>151.8869373418578</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399869</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>170.1331892653133</v>
       </c>
       <c r="L9" t="n">
-        <v>35.59207187785063</v>
+        <v>35.59207187784975</v>
       </c>
       <c r="M9" t="n">
-        <v>61.0866612050751</v>
+        <v>153.1296064382584</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172321</v>
+        <v>77.25763014172216</v>
       </c>
       <c r="O9" t="n">
-        <v>84.42658210883651</v>
+        <v>48.23140050205691</v>
       </c>
       <c r="P9" t="n">
-        <v>170.133189265314</v>
+        <v>19.18160131759552</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653133</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490383</v>
+        <v>55.85234555490344</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004872</v>
+        <v>127.5590807004867</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276391</v>
+        <v>144.9872292276386</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162226</v>
+        <v>147.0292685162221</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741705</v>
+        <v>119.62725057417</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468894</v>
+        <v>78.60351423468853</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902408</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>57.74979223202579</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691868</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683839</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042469</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396454</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955778</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
